--- a/data/income_statement/3digits/total/552_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/552_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>552-Holiday and other short-stay accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>552-Holiday and other short-stay accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>43885.89416</v>
@@ -956,43 +862,48 @@
         <v>78170.54478</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>89329.48475000002</v>
+        <v>89329.48475</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>111897.25769</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>128279.21832</v>
+        <v>128329.75535</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>234656.74899</v>
+        <v>234713.21006</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>244234.23559</v>
+        <v>257093.52317</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>327994.07384</v>
+        <v>331820.9173099999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>400555.83376</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>619415.5907300001</v>
+        <v>619987.93035</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>888398.29236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>905729.16305</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>803629.3100000001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>38855.78931</v>
+        <v>38855.78930999999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>71407.80777000001</v>
+        <v>71407.80777</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>82304.71759</v>
@@ -1001,31 +912,36 @@
         <v>102489.83796</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>116409.86091</v>
+        <v>116460.39794</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>229735.04124</v>
+        <v>229791.50231</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>236799.1199</v>
+        <v>249524.43455</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>309765.45377</v>
+        <v>311851.55894</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>381239.83152</v>
+        <v>381239.8315200001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>574379.24523</v>
+        <v>574938.48048</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>829970.73911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>847170.2431600001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>753895.525</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>376.2079</v>
@@ -1058,13 +974,18 @@
         <v>25058.76592</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>25305.91755000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>25305.91755</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>31075.057</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>4653.89695</v>
@@ -1073,7 +994,7 @@
         <v>5733.75349</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6081.533530000001</v>
+        <v>6081.53353</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>8755.681929999999</v>
@@ -1082,28 +1003,33 @@
         <v>9330.73746</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3492.04573</v>
+        <v>3492.045729999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4471.35309</v>
+        <v>4605.32602</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>12421.15294</v>
+        <v>14161.89124</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>13987.73108</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>19977.57958</v>
+        <v>19990.68395</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>33121.6357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>33253.00234</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>18658.728</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>503.70778</v>
@@ -1124,31 +1050,36 @@
         <v>4425.77318</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8754.67628</v>
+        <v>8759.925310000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5390.6762</v>
+        <v>5391.248229999999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2457.98547</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3858.65754</v>
+        <v>3858.657540000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8047.442820000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8173.92332</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>14004.506</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>484.42065</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>735.0993100000001</v>
+        <v>735.0993099999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>212.53144</v>
@@ -1160,13 +1091,13 @@
         <v>321.59374</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4167.622469999999</v>
+        <v>4167.62247</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>8367.29572</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5306.83745</v>
+        <v>5307.409479999999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>842.2879399999999</v>
@@ -1175,13 +1106,18 @@
         <v>1318.75086</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3646.874229999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3773.35473</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>4611.37</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>17.94261</v>
@@ -1205,7 +1141,7 @@
         <v>354.01399</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>23.41990999999999</v>
+        <v>23.41991</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1535.64021</v>
@@ -1214,13 +1150,18 @@
         <v>2525.41123</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4377.215639999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4377.21564</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1251.542</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1.34452</v>
@@ -1241,7 +1182,7 @@
         <v>21.49763</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>33.36657</v>
+        <v>38.61560000000001</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>60.41884</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>23.35295</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>8141.594</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>43382.18638</v>
+        <v>43382.18637999999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>77396.11774999999</v>
+        <v>77396.11775</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>88452.27357000002</v>
+        <v>88452.27357</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>109903.82961</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>127821.86728</v>
+        <v>127872.40431</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>230230.97581</v>
+        <v>230287.43688</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>235479.55931</v>
+        <v>248333.59786</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>322603.39764</v>
+        <v>326429.66908</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>398097.84829</v>
+        <v>398097.8482899999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>615556.93319</v>
+        <v>616129.27281</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>880350.84954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>897555.23973</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>789624.804</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>28664.69956</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>47889.93870000001</v>
+        <v>47889.9387</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>50086.29645</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>66283.89694999999</v>
+        <v>66283.89695000001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>83759.12141000001</v>
+        <v>83795.29499000001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>149911.681</v>
+        <v>149945.79046</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>177029.0184</v>
+        <v>179931.3199</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>243603.12215</v>
+        <v>246766.2124</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>273800.07116</v>
+        <v>273800.0711600001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>363008.67564</v>
+        <v>363425.37084</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>522919.03621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>537325.8402699999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>609089.9889999999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2688.53825</v>
@@ -1349,7 +1305,7 @@
         <v>1288.40056</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>9553.56767</v>
+        <v>9553.567670000002</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>11468.38296</v>
@@ -1358,7 +1314,7 @@
         <v>22783.54414</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>19041.45318</v>
+        <v>19827.72685</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>23541.30122</v>
@@ -1370,13 +1326,18 @@
         <v>20801.25449</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>30677.32416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>34341.55791</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>25424.493</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>9423.124659999999</v>
@@ -1400,22 +1361,27 @@
         <v>30299.45344</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>53636.03284000001</v>
+        <v>53636.03283999999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>55381.17444</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>31704.28562</v>
+        <v>31708.09627</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>43004.99849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>44703.39661</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>269496.712</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>15993.86626</v>
@@ -1430,40 +1396,45 @@
         <v>36214.69064</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>49762.56759999999</v>
+        <v>49798.74118</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>98652.32797999999</v>
+        <v>98686.43743999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>125014.19946</v>
+        <v>127130.22729</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>159233.0955</v>
+        <v>160967.95761</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>194403.73723</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>308748.59503</v>
+        <v>309161.47958</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>447154.01586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>456198.1880499999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>310041.126</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>559.17039</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>690.9701699999999</v>
+        <v>690.9701700000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>998.1858999999999</v>
+        <v>998.1859000000001</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>2046.39502</v>
@@ -1478,10 +1449,10 @@
         <v>2673.91232</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>7192.69259</v>
+        <v>8620.92073</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5584.26448</v>
+        <v>5584.264480000001</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>1754.5405</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>2082.6977</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>4127.658</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>14717.48682</v>
@@ -1505,34 +1481,39 @@
         <v>38365.97712</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>43619.93266</v>
+        <v>43619.93266000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>44062.74587000001</v>
+        <v>44077.10932</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>80319.29481000001</v>
+        <v>80341.64642</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>58450.54091</v>
+        <v>68402.27795999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>79000.27549000001</v>
+        <v>79663.45668</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>124297.77713</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>252548.25755</v>
+        <v>252703.90197</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>357431.81333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>360229.39946</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>180534.815</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>16214.51607</v>
@@ -1547,31 +1528,36 @@
         <v>44636.03563</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>54308.61362</v>
+        <v>54321.99971</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>95371.32825000001</v>
+        <v>95384.75663</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>91820.59653</v>
+        <v>99009.80396999999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>106771.32429</v>
+        <v>107091.13637</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>124687.9234</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>166920.56009</v>
+        <v>167319.85053</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>327538.2785900001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>331679.95417</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>229369.06</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>54.52506</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>3140.88647</v>
@@ -1631,7 +1622,7 @@
         <v>47899.82537</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>33374.36094</v>
+        <v>33394.07762</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>25516.35225</v>
@@ -1640,16 +1631,21 @@
         <v>33919.12467</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>41378.20768</v>
+        <v>41390.45038</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>124160.00047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>124255.1244</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>70032.31299999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>13019.10454</v>
@@ -1664,37 +1660,42 @@
         <v>21949.44408</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>35527.66883</v>
+        <v>35541.05492</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>47471.01529</v>
+        <v>47484.44367</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>58430.24858000001</v>
+        <v>65599.73934</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>81254.97203999999</v>
+        <v>81574.78412000001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>90724.03704000001</v>
+        <v>90724.03704</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>125313.98325</v>
+        <v>125701.03099</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>203378.27812</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>207424.82977</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>159336.746</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-1497.02925</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3678.451899999999</v>
+        <v>3678.4519</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>3437.8933</v>
@@ -1703,31 +1704,36 @@
         <v>-1016.10297</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-10245.86775</v>
+        <v>-10244.89039</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-15052.03344</v>
+        <v>-15043.11021</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-33370.05562</v>
+        <v>-30607.52601</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-27771.0488</v>
+        <v>-27427.67969</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-390.14627</v>
+        <v>-390.1462699999996</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>85627.69746</v>
+        <v>85384.05144</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>29893.53474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>28549.44528999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-48834.245</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>3693.54696</v>
@@ -1748,25 +1754,30 @@
         <v>9569.04711</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>15373.41146</v>
+        <v>32339.71806</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>19050.59235</v>
+        <v>19063.45065</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>26681.25407</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>89299.41936000001</v>
+        <v>89299.42577000002</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>41315.86781000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>41560.76394</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>41826.517</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>98.11150000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>374.41751</v>
+        <v>374.4175099999999</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>598.29866</v>
@@ -1865,10 +1886,10 @@
         <v>3294.60886</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3786.63046</v>
+        <v>4400.69346</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3884.8497</v>
+        <v>3897.708</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1987.01251</v>
@@ -1877,13 +1898,18 @@
         <v>3035.79269</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2718.055</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2730.67151</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2087.518</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.6938499999999999</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>51.65267</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>127.928</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0.657</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1063.369</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>8.46302</v>
@@ -1985,7 +2021,7 @@
         <v>19.21375</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>555.6794600000001</v>
+        <v>555.6794599999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>25.93985</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>21.35903</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>53.122</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2839.93896</v>
@@ -2021,7 +2062,7 @@
         <v>4557.45833</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8255.385990000001</v>
+        <v>24528.46563</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>8721.39739</v>
@@ -2030,16 +2071,21 @@
         <v>17872.34593</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>80737.07981000001</v>
+        <v>80737.07981</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>27870.47056</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>27911.96597</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>30238.171</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>79.71603</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>85.785</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1.2</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>47.66094</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>53.012</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>468.83362</v>
@@ -2138,28 +2194,33 @@
         <v>1702.17976</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3289.98036</v>
+        <v>3369.14432</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5858.536369999999</v>
+        <v>5858.536370000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>6569.79252</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5080.959179999999</v>
+        <v>5080.96559</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>10428.18508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10618.96929</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>8117.612</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>8297.288859999999</v>
+        <v>8297.288860000001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>2008.39359</v>
@@ -2177,25 +2238,30 @@
         <v>6652.197740000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>8468.317789999999</v>
+        <v>27082.80557</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>15921.95624</v>
+        <v>16067.30044</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>29153.68948</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>193475.3981</v>
+        <v>193508.61921</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>79524.38634</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>79587.09138000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>191566.219</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3.09059</v>
@@ -2210,7 +2276,7 @@
         <v>138.37145</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>37.01684</v>
+        <v>37.01683999999999</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>100.29509</v>
@@ -2228,13 +2294,18 @@
         <v>2963.23647</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>846.16801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>847.76003</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1260.645</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>5488.497989999999</v>
@@ -2258,7 +2329,7 @@
         <v>354.04554</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>17.3939</v>
+        <v>160.6203</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>202.69562</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>120.45714</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>4866.337</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>8.62731</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>2751.73777</v>
@@ -2333,7 +2414,7 @@
         <v>6039.73389</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>7318.500609999999</v>
+        <v>25918.73754</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>14921.64092</v>
@@ -2342,16 +2423,21 @@
         <v>27137.75733</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>189903.05958</v>
+        <v>189903.11528</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>78265.54974000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>78281.74739</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>183714.793</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2375,7 +2461,7 @@
         <v>3.10583</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>112.91645</v>
+        <v>115.03425</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>19.64424</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>45.3352</v>
@@ -2450,31 +2546,36 @@
         <v>390.56679</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>448.7355900000001</v>
+        <v>462.9864400000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>534.5719300000001</v>
+        <v>534.57193</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1385.56153</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>306.80935</v>
+        <v>339.97476</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>292.21145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>337.12682</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1724.444</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1870.52449</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>917.6040499999999</v>
+        <v>917.60405</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>2974.16983</v>
@@ -2489,31 +2590,36 @@
         <v>10952.34331</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>10304.30205</v>
+        <v>15081.3269</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>19163.22848</v>
+        <v>19220.62349</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>20798.48264</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>50647.80363</v>
+        <v>50647.80362999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>47312.55515</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>47419.55349999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>26856.931</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1808.04332</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>917.3367699999999</v>
+        <v>917.33677</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>2952.14551</v>
@@ -2528,10 +2634,10 @@
         <v>10873.13828</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9306.344969999998</v>
+        <v>14083.36982</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>18436.14373</v>
+        <v>18493.53874</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>18862.84707</v>
@@ -2540,13 +2646,18 @@
         <v>29785.03812</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>28843.79728</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>28950.79563</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>22990.082</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>62.48117</v>
@@ -2581,17 +2692,22 @@
       <c r="M46" s="48" t="n">
         <v>18468.75787</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>3866.849</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-7971.29564</v>
+        <v>-7971.295639999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4245.749699999999</v>
+        <v>4245.7497</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>3997.94576</v>
@@ -2600,31 +2716,36 @@
         <v>5238.726269999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-11723.73138</v>
+        <v>-11722.75402</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-23087.52738</v>
+        <v>-23078.60415</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-36769.264</v>
+        <v>-40431.94042</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-43805.64117</v>
+        <v>-43652.15297</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-23661.06432</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-69196.08490999999</v>
+        <v>-69472.94563</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-55627.53894</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-56896.43565</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-225430.878</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1521.22103</v>
@@ -2636,40 +2757,45 @@
         <v>1574.32719</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>5763.8458</v>
+        <v>5763.845800000001</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>2519.29476</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>7141.556930000001</v>
+        <v>7141.55693</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5394.485</v>
+        <v>55366.03996</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>12291.58941</v>
+        <v>12294.01483</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>21482.37496</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>21235.96284</v>
+        <v>21237.60731</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>17070.1177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>17414.35552</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>31742.887</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>5.98679</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>5.50818</v>
+        <v>5.508179999999999</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>67.76255</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>35.6983</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>67.41500000000001</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1515.23424</v>
@@ -2723,28 +2854,33 @@
         <v>7135.48221</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5393.11544</v>
+        <v>55364.6704</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>12249.58183</v>
+        <v>12252.00725</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>21436.63274</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>21228.19814</v>
+        <v>21229.84261</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>17034.4194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>17378.65722</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>31675.472</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>923.9017100000001</v>
+        <v>923.90171</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>1681.11296</v>
@@ -2762,7 +2898,7 @@
         <v>5364.57699</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3301.42999</v>
+        <v>3395.47215</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>10318.0374</v>
@@ -2771,16 +2907,21 @@
         <v>12552.75412</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>19230.40703</v>
+        <v>19240.61036</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>73605.00704000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>73627.53642000002</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>135148.142</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1.24762</v>
@@ -2813,13 +2954,18 @@
         <v>115.31791</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>43.50257</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>44.12757</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>262.215</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>49.12938</v>
@@ -2852,13 +2998,18 @@
         <v>196.83114</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>60035.73845</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>60036.12325</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>17524.551</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>873.5247099999999</v>
@@ -2879,7 +3030,7 @@
         <v>5142.30719</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2942.6903</v>
+        <v>3036.732460000001</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>10010.26083</v>
@@ -2888,16 +3039,21 @@
         <v>11842.24165</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>18918.25798</v>
+        <v>18928.46131</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>13525.76602</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>13547.2856</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>117361.376</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-7373.97632</v>
@@ -2912,31 +3068,36 @@
         <v>8527.3163</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-11079.16132</v>
+        <v>-11078.18396</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-21310.54744</v>
+        <v>-21301.62421</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-34676.20899</v>
+        <v>11538.62739</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-41832.08916</v>
+        <v>-41676.17554</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-14731.44348</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-67190.5291</v>
+        <v>-67475.94868</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-112162.42828</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-113109.61655</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-328836.133</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>267.49027</v>
@@ -2957,25 +3118,30 @@
         <v>1415.94326</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1297.83732</v>
+        <v>1354.71156</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1982.7799</v>
+        <v>2015.18279</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3097.126690000001</v>
+        <v>3097.12669</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>5658.24526</v>
+        <v>5658.603529999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>6470.92704</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>6731.574850000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>7419.509</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-7641.46659</v>
@@ -2987,31 +3153,34 @@
         <v>-10363.03059</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5350.50004</v>
+        <v>5350.500040000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-12151.2915</v>
+        <v>-12150.31414</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-22726.4907</v>
+        <v>-22717.56747</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-35974.04631000001</v>
+        <v>10183.91583</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-43814.86906</v>
+        <v>-43691.35833</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-17828.57017</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-72848.77435999998</v>
+        <v>-73134.55221000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-118633.35532</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-119841.1914</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-336255.642</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>174</v>
@@ -3044,28 +3216,31 @@
         <v>302</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>671</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>867</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>